--- a/Output/532b/532b_Adk_parcel_tax.xlsx
+++ b/Output/532b/532b_Adk_parcel_tax.xlsx
@@ -1265,34 +1265,31 @@
     <t>92000</t>
   </si>
   <si>
-    <t>152200</t>
+    <t>93400</t>
   </si>
   <si>
-    <t>93400</t>
+    <t>203200</t>
+  </si>
+  <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>154000</t>
+  </si>
+  <si>
+    <t>232400</t>
   </si>
   <si>
     <t>412800</t>
   </si>
   <si>
-    <t>232400</t>
-  </si>
-  <si>
     <t>303800</t>
   </si>
   <si>
-    <t>202800</t>
+    <t>94400</t>
   </si>
   <si>
-    <t>523000</t>
-  </si>
-  <si>
-    <t>172800</t>
-  </si>
-  <si>
-    <t>153000</t>
-  </si>
-  <si>
-    <t>523200</t>
+    <t>305200</t>
   </si>
   <si>
     <t>153200</t>
@@ -1301,16 +1298,19 @@
     <t>210900</t>
   </si>
   <si>
-    <t>203200</t>
+    <t>152200</t>
   </si>
   <si>
-    <t>154000</t>
+    <t>523200</t>
   </si>
   <si>
-    <t>305200</t>
+    <t>172800</t>
   </si>
   <si>
-    <t>94400</t>
+    <t>523000</t>
+  </si>
+  <si>
+    <t>202800</t>
   </si>
   <si>
     <t>155400</t>
@@ -1319,19 +1319,31 @@
     <t>nan</t>
   </si>
   <si>
-    <t>302601</t>
+    <t>93601</t>
   </si>
   <si>
-    <t>152402</t>
+    <t>154601</t>
   </si>
   <si>
-    <t>172201</t>
+    <t>153401</t>
   </si>
   <si>
-    <t>412601</t>
+    <t>94401</t>
   </si>
   <si>
-    <t>152203</t>
+    <t>153801</t>
+  </si>
+  <si>
+    <t>203201</t>
+  </si>
+  <si>
+    <t>153001</t>
+  </si>
+  <si>
+    <t>154002</t>
+  </si>
+  <si>
+    <t>305201</t>
   </si>
   <si>
     <t>523201</t>
@@ -1340,46 +1352,34 @@
     <t>232401</t>
   </si>
   <si>
-    <t>202801</t>
+    <t>164601</t>
+  </si>
+  <si>
+    <t>523402</t>
+  </si>
+  <si>
+    <t>213803</t>
+  </si>
+  <si>
+    <t>302601</t>
+  </si>
+  <si>
+    <t>152402</t>
   </si>
   <si>
     <t>523001</t>
   </si>
   <si>
-    <t>153001</t>
+    <t>202801</t>
   </si>
   <si>
-    <t>154002</t>
+    <t>152203</t>
   </si>
   <si>
-    <t>203201</t>
+    <t>412601</t>
   </si>
   <si>
-    <t>153401</t>
-  </si>
-  <si>
-    <t>153801</t>
-  </si>
-  <si>
-    <t>93601</t>
-  </si>
-  <si>
-    <t>213803</t>
-  </si>
-  <si>
-    <t>523402</t>
-  </si>
-  <si>
-    <t>305201</t>
-  </si>
-  <si>
-    <t>94401</t>
-  </si>
-  <si>
-    <t>164601</t>
-  </si>
-  <si>
-    <t>154601</t>
+    <t>172201</t>
   </si>
   <si>
     <t>Locality</t>
@@ -44853,61 +44853,61 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>51.85</v>
+        <v>69.37</v>
       </c>
       <c r="D2">
-        <v>0.5345608041237114</v>
+        <v>1.981956</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G2">
-        <v>22607.999</v>
+        <v>22853.20285</v>
       </c>
       <c r="H2">
-        <v>152946.852</v>
+        <v>93190.5549</v>
       </c>
       <c r="I2">
-        <v>221392.626</v>
+        <v>121287.6038</v>
       </c>
       <c r="J2">
-        <v>0.002293436053319004</v>
+        <v>0.003035460738493379</v>
       </c>
       <c r="K2">
-        <v>0.0003390066504932053</v>
+        <v>0.0007443887427694672</v>
       </c>
       <c r="L2">
-        <v>0.000234199308878517</v>
+        <v>0.0005719463310891134</v>
       </c>
       <c r="M2">
-        <v>33.957</v>
+        <v>32.764</v>
       </c>
       <c r="N2">
-        <v>1740879.6</v>
+        <v>849234.9</v>
       </c>
       <c r="O2">
-        <v>80320</v>
+        <v>37281</v>
       </c>
       <c r="P2">
-        <v>80320</v>
+        <v>37281</v>
       </c>
       <c r="Q2">
-        <v>72635</v>
+        <v>34659</v>
       </c>
       <c r="R2">
-        <v>7685</v>
+        <v>2622</v>
       </c>
       <c r="S2">
-        <v>0.000645542828685259</v>
+        <v>0.001860733349427322</v>
       </c>
       <c r="T2">
-        <v>2.978379435315343E-05</v>
+        <v>8.16852910778867E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -44915,61 +44915,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>69.37</v>
+        <v>51.85</v>
       </c>
       <c r="D3">
-        <v>1.981956</v>
+        <v>0.5345608041237114</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G3">
-        <v>22853.20285</v>
+        <v>22607.999</v>
       </c>
       <c r="H3">
-        <v>93190.5549</v>
+        <v>152946.852</v>
       </c>
       <c r="I3">
-        <v>121287.6038</v>
+        <v>221392.626</v>
       </c>
       <c r="J3">
-        <v>0.003035460738493379</v>
+        <v>0.002293436053319004</v>
       </c>
       <c r="K3">
-        <v>0.0007443887427694672</v>
+        <v>0.0003390066504932053</v>
       </c>
       <c r="L3">
-        <v>0.0005719463310891134</v>
+        <v>0.000234199308878517</v>
       </c>
       <c r="M3">
-        <v>32.764</v>
+        <v>33.957</v>
       </c>
       <c r="N3">
-        <v>849234.9</v>
+        <v>1740879.6</v>
       </c>
       <c r="O3">
-        <v>37281</v>
+        <v>80320</v>
       </c>
       <c r="P3">
-        <v>37281</v>
+        <v>80320</v>
       </c>
       <c r="Q3">
-        <v>34659</v>
+        <v>72635</v>
       </c>
       <c r="R3">
-        <v>2622</v>
+        <v>7685</v>
       </c>
       <c r="S3">
-        <v>0.001860733349427322</v>
+        <v>0.000645542828685259</v>
       </c>
       <c r="T3">
-        <v>8.16852910778867E-05</v>
+        <v>2.978379435315343E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -44977,61 +44977,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.472789333333333</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4">
-        <v>30063.123</v>
+        <v>8764.20549</v>
       </c>
       <c r="H4">
-        <v>75204.06899</v>
+        <v>17202.65996</v>
       </c>
       <c r="I4">
-        <v>99571.84798999999</v>
+        <v>22935.38109</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0005043240947560211</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0002569370091763413</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0001927153502553814</v>
       </c>
       <c r="M4">
-        <v>32.854</v>
+        <v>31.603</v>
       </c>
       <c r="N4">
-        <v>1184315.3</v>
+        <v>82826.60000000001</v>
       </c>
       <c r="O4">
-        <v>53452</v>
+        <v>4454</v>
       </c>
       <c r="P4">
-        <v>53452</v>
+        <v>4454</v>
       </c>
       <c r="Q4">
-        <v>49696</v>
+        <v>4229</v>
       </c>
       <c r="R4">
-        <v>3756</v>
+        <v>225</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0009923664122137405</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.336449884457408E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -45039,61 +45039,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>4.42</v>
+        <v>0.42</v>
       </c>
       <c r="D5">
-        <v>1.472789333333333</v>
+        <v>0.209935</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G5">
-        <v>8764.20549</v>
+        <v>66344.78599999999</v>
       </c>
       <c r="H5">
-        <v>17202.65996</v>
+        <v>333781.61509</v>
       </c>
       <c r="I5">
-        <v>22935.38109</v>
+        <v>478834.04345</v>
       </c>
       <c r="J5">
-        <v>0.0005043240947560211</v>
+        <v>6.330565298680744E-06</v>
       </c>
       <c r="K5">
-        <v>0.0002569370091763413</v>
+        <v>1.258307770746308E-06</v>
       </c>
       <c r="L5">
-        <v>0.0001927153502553814</v>
+        <v>8.771306170586773E-07</v>
       </c>
       <c r="M5">
-        <v>31.603</v>
+        <v>35.294</v>
       </c>
       <c r="N5">
-        <v>82826.60000000001</v>
+        <v>5128666.6</v>
       </c>
       <c r="O5">
-        <v>4454</v>
+        <v>229074</v>
       </c>
       <c r="P5">
-        <v>4454</v>
+        <v>229074</v>
       </c>
       <c r="Q5">
-        <v>4229</v>
+        <v>193460</v>
       </c>
       <c r="R5">
-        <v>225</v>
+        <v>35614</v>
       </c>
       <c r="S5">
-        <v>0.0009923664122137405</v>
+        <v>1.833468660782105E-06</v>
       </c>
       <c r="T5">
-        <v>5.336449884457408E-05</v>
+        <v>8.189263072783869E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -45101,61 +45101,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.09324249999999999</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G6">
-        <v>25158.97</v>
+        <v>17482.144</v>
       </c>
       <c r="H6">
-        <v>104433.2357</v>
+        <v>141033.3272</v>
       </c>
       <c r="I6">
-        <v>136273.3647</v>
+        <v>160375.1682</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.116445214042397E-05</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.623493378095671E-06</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.307090331706352E-06</v>
       </c>
       <c r="M6">
-        <v>34.511</v>
+        <v>33.263</v>
       </c>
       <c r="N6">
-        <v>1315745.9</v>
+        <v>541872.5</v>
       </c>
       <c r="O6">
-        <v>61738</v>
+        <v>26456</v>
       </c>
       <c r="P6">
-        <v>61738</v>
+        <v>26456</v>
       </c>
       <c r="Q6">
-        <v>58518</v>
+        <v>25545</v>
       </c>
       <c r="R6">
-        <v>3220</v>
+        <v>911</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1.39854853341397E-05</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>6.82817452444994E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -45163,61 +45163,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="D7">
-        <v>0.09324249999999999</v>
+        <v>0.2343479999999999</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G7">
-        <v>17482.144</v>
+        <v>65428.87002</v>
       </c>
       <c r="H7">
-        <v>141033.3272</v>
+        <v>332732.82696</v>
       </c>
       <c r="I7">
-        <v>160375.1682</v>
+        <v>411854.4990299999</v>
       </c>
       <c r="J7">
-        <v>2.116445214042397E-05</v>
+        <v>3.515267800432663E-06</v>
       </c>
       <c r="K7">
-        <v>2.623493378095671E-06</v>
+        <v>6.912452916094445E-07</v>
       </c>
       <c r="L7">
-        <v>2.307090331706352E-06</v>
+        <v>5.584496479744575E-07</v>
       </c>
       <c r="M7">
-        <v>33.263</v>
+        <v>46.71</v>
       </c>
       <c r="N7">
-        <v>541872.5</v>
+        <v>8346047.4</v>
       </c>
       <c r="O7">
-        <v>26456</v>
+        <v>229313</v>
       </c>
       <c r="P7">
-        <v>26456</v>
+        <v>229313</v>
       </c>
       <c r="Q7">
-        <v>25545</v>
+        <v>211258</v>
       </c>
       <c r="R7">
-        <v>911</v>
+        <v>18055</v>
       </c>
       <c r="S7">
-        <v>1.39854853341397E-05</v>
+        <v>1.002995905160196E-06</v>
       </c>
       <c r="T7">
-        <v>6.82817452444994E-07</v>
+        <v>2.755795515851012E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -45225,61 +45225,61 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.209935</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G8">
-        <v>66344.78599999999</v>
+        <v>30063.123</v>
       </c>
       <c r="H8">
-        <v>333781.61509</v>
+        <v>75204.06899</v>
       </c>
       <c r="I8">
-        <v>478834.04345</v>
+        <v>99571.84798999999</v>
       </c>
       <c r="J8">
-        <v>6.330565298680744E-06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.258307770746308E-06</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.771306170586773E-07</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>35.294</v>
+        <v>32.854</v>
       </c>
       <c r="N8">
-        <v>5128666.6</v>
+        <v>1184315.3</v>
       </c>
       <c r="O8">
-        <v>229074</v>
+        <v>53452</v>
       </c>
       <c r="P8">
-        <v>229074</v>
+        <v>53452</v>
       </c>
       <c r="Q8">
-        <v>193460</v>
+        <v>49696</v>
       </c>
       <c r="R8">
-        <v>35614</v>
+        <v>3756</v>
       </c>
       <c r="S8">
-        <v>1.833468660782105E-06</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>8.189263072783869E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -45287,61 +45287,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2343479999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G9">
-        <v>65428.87002</v>
+        <v>25158.97</v>
       </c>
       <c r="H9">
-        <v>332732.82696</v>
+        <v>104433.2357</v>
       </c>
       <c r="I9">
-        <v>411854.4990299999</v>
+        <v>136273.3647</v>
       </c>
       <c r="J9">
-        <v>3.515267800432663E-06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.912452916094445E-07</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.584496479744575E-07</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>46.71</v>
+        <v>34.511</v>
       </c>
       <c r="N9">
-        <v>8346047.4</v>
+        <v>1315745.9</v>
       </c>
       <c r="O9">
-        <v>229313</v>
+        <v>61738</v>
       </c>
       <c r="P9">
-        <v>229313</v>
+        <v>61738</v>
       </c>
       <c r="Q9">
-        <v>211258</v>
+        <v>58518</v>
       </c>
       <c r="R9">
-        <v>18055</v>
+        <v>3220</v>
       </c>
       <c r="S9">
-        <v>1.002995905160196E-06</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>2.755795515851012E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -45515,70 +45515,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>35.22</v>
+        <v>74.19</v>
       </c>
       <c r="D2">
-        <v>0.8805054999999999</v>
+        <v>37.092657</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
-        <v>414</v>
+        <v>116</v>
       </c>
       <c r="I2">
-        <v>487.374</v>
+        <v>923.8107199999999</v>
       </c>
       <c r="J2">
-        <v>1396.143</v>
+        <v>1203.68923</v>
       </c>
       <c r="K2">
-        <v>1636.735</v>
+        <v>1305.72076</v>
       </c>
       <c r="L2">
-        <v>0.07226483152568663</v>
+        <v>0.08030865889930353</v>
       </c>
       <c r="M2">
-        <v>0.02522664225655968</v>
+        <v>0.06163551035511051</v>
       </c>
       <c r="N2">
-        <v>0.02151844984068893</v>
+        <v>0.05681919310220663</v>
       </c>
       <c r="O2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="P2">
-        <v>33.19</v>
+        <v>35.577</v>
       </c>
       <c r="Q2">
-        <v>45219.6</v>
+        <v>4962.9</v>
       </c>
       <c r="R2">
-        <v>2882</v>
+        <v>244</v>
       </c>
       <c r="S2">
-        <v>2882</v>
+        <v>244</v>
       </c>
       <c r="T2">
-        <v>2367</v>
+        <v>232</v>
       </c>
       <c r="U2">
-        <v>515</v>
+        <v>12</v>
       </c>
       <c r="V2">
-        <v>0.0122206800832755</v>
+        <v>0.3040573770491803</v>
       </c>
       <c r="W2">
-        <v>0.0007788658015550778</v>
+        <v>0.0149489209937738</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -45586,52 +45586,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>39.54</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>39.53999</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="H3" t="s">
-        <v>415</v>
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <v>1986.297</v>
+      </c>
+      <c r="J3">
+        <v>2796.5167</v>
+      </c>
+      <c r="K3">
+        <v>3230.54226</v>
+      </c>
+      <c r="L3">
+        <v>0.01990638862164117</v>
+      </c>
+      <c r="M3">
+        <v>0.01413901801480392</v>
+      </c>
+      <c r="N3">
+        <v>0.0122394312835889</v>
       </c>
       <c r="O3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P3">
-        <v>36.399</v>
+        <v>27.5</v>
       </c>
       <c r="Q3">
-        <v>52770.2</v>
+        <v>20796.9</v>
       </c>
       <c r="R3">
-        <v>2029</v>
+        <v>969</v>
       </c>
       <c r="S3">
-        <v>2029</v>
+        <v>969</v>
       </c>
       <c r="T3">
-        <v>2003</v>
+        <v>940</v>
       </c>
       <c r="U3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.04080495356037152</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.001901244897076006</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -45639,70 +45657,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4">
-        <v>29.53</v>
+        <v>35.22</v>
       </c>
       <c r="D4">
-        <v>0.5273468571428571</v>
+        <v>0.8805054999999999</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I4">
-        <v>639.10325</v>
+        <v>487.374</v>
       </c>
       <c r="J4">
-        <v>1740.13603</v>
+        <v>1396.143</v>
       </c>
       <c r="K4">
-        <v>2398.92697</v>
+        <v>1636.735</v>
       </c>
       <c r="L4">
-        <v>0.04620536666023839</v>
+        <v>0.07226483152568663</v>
       </c>
       <c r="M4">
-        <v>0.01696993768929662</v>
+        <v>0.02522664225655968</v>
       </c>
       <c r="N4">
-        <v>0.01230967026895362</v>
+        <v>0.02151844984068893</v>
       </c>
       <c r="O4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P4">
-        <v>34.355</v>
+        <v>33.19</v>
       </c>
       <c r="Q4">
-        <v>25197.9</v>
+        <v>45219.6</v>
       </c>
       <c r="R4">
-        <v>4558</v>
+        <v>2882</v>
       </c>
       <c r="S4">
-        <v>4558</v>
+        <v>2882</v>
       </c>
       <c r="T4">
-        <v>2005</v>
+        <v>2367</v>
       </c>
       <c r="U4">
-        <v>2553</v>
+        <v>515</v>
       </c>
       <c r="V4">
-        <v>0.006478718736287845</v>
+        <v>0.0122206800832755</v>
       </c>
       <c r="W4">
-        <v>0.001171923057080153</v>
+        <v>0.0007788658015550778</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -45710,70 +45728,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>0.18</v>
+        <v>33.68</v>
       </c>
       <c r="D5">
-        <v>0.181719</v>
+        <v>16.838433</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>118</v>
       </c>
       <c r="I5">
-        <v>715.49212</v>
+        <v>4310.1499</v>
       </c>
       <c r="J5">
-        <v>1952.172</v>
+        <v>4929.73462</v>
       </c>
       <c r="K5">
-        <v>2310.50101</v>
+        <v>5388.06295</v>
       </c>
       <c r="L5">
-        <v>0.0002515750977103703</v>
+        <v>0.00781411337921217</v>
       </c>
       <c r="M5">
-        <v>9.220499013406605E-05</v>
+        <v>0.006832010766534933</v>
       </c>
       <c r="N5">
-        <v>7.790518126629167E-05</v>
+        <v>0.006250854957067641</v>
       </c>
       <c r="O5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="P5">
-        <v>31.81</v>
+        <v>37.083</v>
       </c>
       <c r="Q5">
-        <v>12802.7</v>
+        <v>5235.5</v>
       </c>
       <c r="R5">
-        <v>836</v>
+        <v>344</v>
       </c>
       <c r="S5">
-        <v>836</v>
+        <v>344</v>
       </c>
       <c r="T5">
-        <v>783</v>
+        <v>333</v>
       </c>
       <c r="U5">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="V5">
-        <v>0.000215311004784689</v>
+        <v>0.09790697674418604</v>
       </c>
       <c r="W5">
-        <v>1.405953431698001E-05</v>
+        <v>0.00643300544360615</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -45781,70 +45799,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>0.22</v>
+        <v>29.53</v>
       </c>
       <c r="D6">
-        <v>0.0547105</v>
+        <v>0.5273468571428571</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I6">
-        <v>800.01</v>
+        <v>639.10325</v>
       </c>
       <c r="J6">
-        <v>1060.52034</v>
+        <v>1740.13603</v>
       </c>
       <c r="K6">
-        <v>1463.42085</v>
+        <v>2398.92697</v>
       </c>
       <c r="L6">
-        <v>0.0002749965625429682</v>
+        <v>0.04620536666023839</v>
       </c>
       <c r="M6">
-        <v>0.0002074453376349198</v>
+        <v>0.01696993768929662</v>
       </c>
       <c r="N6">
-        <v>0.0001503326947952122</v>
+        <v>0.01230967026895362</v>
       </c>
       <c r="O6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P6">
-        <v>34.333</v>
+        <v>34.355</v>
       </c>
       <c r="Q6">
-        <v>28852</v>
+        <v>25197.9</v>
       </c>
       <c r="R6">
-        <v>1295</v>
+        <v>4558</v>
       </c>
       <c r="S6">
-        <v>1295</v>
+        <v>4558</v>
       </c>
       <c r="T6">
-        <v>1278</v>
+        <v>2005</v>
       </c>
       <c r="U6">
-        <v>17</v>
+        <v>2553</v>
       </c>
       <c r="V6">
-        <v>0.0001698841698841699</v>
+        <v>0.006478718736287845</v>
       </c>
       <c r="W6">
-        <v>7.625121308748093E-06</v>
+        <v>0.001171923057080153</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -45852,70 +45870,70 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C7">
-        <v>0.12</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D7">
-        <v>0.124226</v>
+        <v>4.266592</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I7">
-        <v>559.64574</v>
+        <v>4389.712</v>
       </c>
       <c r="J7">
-        <v>2431.34345</v>
+        <v>4743.601549999999</v>
       </c>
       <c r="K7">
-        <v>2782.96917</v>
+        <v>5127.34887</v>
       </c>
       <c r="L7">
-        <v>0.0002144213587688526</v>
+        <v>0.001943179871481318</v>
       </c>
       <c r="M7">
-        <v>4.9355429402621E-05</v>
+        <v>0.001798211740612995</v>
       </c>
       <c r="N7">
-        <v>4.311941407529139E-05</v>
+        <v>0.001663627776512114</v>
       </c>
       <c r="O7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P7">
-        <v>33.65</v>
+        <v>22.361</v>
       </c>
       <c r="Q7">
-        <v>31423.5</v>
+        <v>7414.4</v>
       </c>
       <c r="R7">
-        <v>1581</v>
+        <v>442</v>
       </c>
       <c r="S7">
-        <v>1581</v>
+        <v>442</v>
       </c>
       <c r="T7">
-        <v>1533</v>
+        <v>420</v>
       </c>
       <c r="U7">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="V7">
-        <v>7.590132827324477E-05</v>
+        <v>0.01929864253393665</v>
       </c>
       <c r="W7">
-        <v>3.818798033319013E-06</v>
+        <v>0.001150463962019853</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -45923,49 +45941,70 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.9735899999999998</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H8" t="s">
-        <v>420</v>
+        <v>417</v>
+      </c>
+      <c r="I8">
+        <v>1966.25169</v>
+      </c>
+      <c r="J8">
+        <v>2799.16626</v>
+      </c>
+      <c r="K8">
+        <v>2947.21949</v>
+      </c>
+      <c r="L8">
+        <v>0.0009917346847900228</v>
+      </c>
+      <c r="M8">
+        <v>0.000696636004750929</v>
+      </c>
+      <c r="N8">
+        <v>0.0006616405756735816</v>
       </c>
       <c r="O8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P8">
-        <v>42.115</v>
+        <v>33.995</v>
+      </c>
+      <c r="Q8">
+        <v>25558.4</v>
       </c>
       <c r="R8">
-        <v>134</v>
+        <v>977</v>
       </c>
       <c r="S8">
-        <v>134</v>
+        <v>977</v>
       </c>
       <c r="T8">
-        <v>134</v>
+        <v>941</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.001995905834186284</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>7.629585576561912E-05</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -45973,70 +46012,70 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.179883</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I9">
-        <v>1934.868</v>
+        <v>4651.247820000001</v>
       </c>
       <c r="J9">
-        <v>4283.95204</v>
+        <v>7571.93548</v>
       </c>
       <c r="K9">
-        <v>4856.46266</v>
+        <v>8754.645759999999</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0002321957551597412</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0001426319601973154</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0001233630725453819</v>
       </c>
       <c r="O9" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P9">
-        <v>27.407</v>
+        <v>26.06</v>
       </c>
       <c r="Q9">
-        <v>42485.3</v>
+        <v>164591.1</v>
       </c>
       <c r="R9">
-        <v>2434</v>
+        <v>8175</v>
       </c>
       <c r="S9">
-        <v>2434</v>
+        <v>8175</v>
       </c>
       <c r="T9">
-        <v>2304</v>
+        <v>6808</v>
       </c>
       <c r="U9">
-        <v>130</v>
+        <v>1367</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.0001321100917431193</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>6.561715669923829E-06</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -46044,70 +46083,70 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0547105</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I10">
-        <v>1376.66797</v>
+        <v>800.01</v>
       </c>
       <c r="J10">
-        <v>3427.89857</v>
+        <v>1060.52034</v>
       </c>
       <c r="K10">
-        <v>4007.65121</v>
+        <v>1463.42085</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0002749965625429682</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0002074453376349198</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.0001503326947952122</v>
       </c>
       <c r="O10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P10">
-        <v>40.2</v>
+        <v>34.333</v>
       </c>
       <c r="Q10">
-        <v>187627.3</v>
+        <v>28852</v>
       </c>
       <c r="R10">
-        <v>7326</v>
+        <v>1295</v>
       </c>
       <c r="S10">
-        <v>7326</v>
+        <v>1295</v>
       </c>
       <c r="T10">
-        <v>6935</v>
+        <v>1278</v>
       </c>
       <c r="U10">
-        <v>391</v>
+        <v>17</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.0001698841698841699</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>7.625121308748093E-06</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -46115,70 +46154,70 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C11">
-        <v>1.95</v>
+        <v>0.18</v>
       </c>
       <c r="D11">
-        <v>0.9735899999999998</v>
+        <v>0.181719</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I11">
-        <v>1966.25169</v>
+        <v>715.49212</v>
       </c>
       <c r="J11">
-        <v>2799.16626</v>
+        <v>1952.172</v>
       </c>
       <c r="K11">
-        <v>2947.21949</v>
+        <v>2310.50101</v>
       </c>
       <c r="L11">
-        <v>0.0009917346847900228</v>
+        <v>0.0002515750977103703</v>
       </c>
       <c r="M11">
-        <v>0.000696636004750929</v>
+        <v>9.220499013406605E-05</v>
       </c>
       <c r="N11">
-        <v>0.0006616405756735816</v>
+        <v>7.790518126629167E-05</v>
       </c>
       <c r="O11" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P11">
-        <v>33.995</v>
+        <v>31.81</v>
       </c>
       <c r="Q11">
-        <v>25558.4</v>
+        <v>12802.7</v>
       </c>
       <c r="R11">
-        <v>977</v>
+        <v>836</v>
       </c>
       <c r="S11">
-        <v>977</v>
+        <v>836</v>
       </c>
       <c r="T11">
-        <v>941</v>
+        <v>783</v>
       </c>
       <c r="U11">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="V11">
-        <v>0.001995905834186284</v>
+        <v>0.000215311004784689</v>
       </c>
       <c r="W11">
-        <v>7.629585576561912E-05</v>
+        <v>1.405953431698001E-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -46186,70 +46225,70 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.124226</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I12">
-        <v>1522.0522</v>
+        <v>559.64574</v>
       </c>
       <c r="J12">
-        <v>3700.22874</v>
+        <v>2431.34345</v>
       </c>
       <c r="K12">
-        <v>3917.96658</v>
+        <v>2782.96917</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0002144213587688526</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.9355429402621E-05</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.311941407529139E-05</v>
       </c>
       <c r="O12" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P12">
-        <v>36.69</v>
+        <v>33.65</v>
       </c>
       <c r="Q12">
-        <v>93356.7</v>
+        <v>31423.5</v>
       </c>
       <c r="R12">
-        <v>3263</v>
+        <v>1581</v>
       </c>
       <c r="S12">
-        <v>3263</v>
+        <v>1581</v>
       </c>
       <c r="T12">
-        <v>3226</v>
+        <v>1533</v>
       </c>
       <c r="U12">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>7.590132827324477E-05</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3.818798033319013E-06</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -46257,7 +46296,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -46266,25 +46305,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I13">
-        <v>389.076</v>
+        <v>1569.659</v>
       </c>
       <c r="J13">
-        <v>722.331</v>
+        <v>1983.361</v>
       </c>
       <c r="K13">
-        <v>996.29989</v>
+        <v>2769.963</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -46296,25 +46335,25 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P13">
-        <v>35.724</v>
+        <v>39.847</v>
       </c>
       <c r="Q13">
-        <v>27760.3</v>
+        <v>95388.8</v>
       </c>
       <c r="R13">
-        <v>1078</v>
+        <v>3931</v>
       </c>
       <c r="S13">
-        <v>1078</v>
+        <v>3931</v>
       </c>
       <c r="T13">
-        <v>1026</v>
+        <v>3877</v>
       </c>
       <c r="U13">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -46328,7 +46367,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -46337,25 +46376,25 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I14">
-        <v>332.575</v>
+        <v>266.027</v>
       </c>
       <c r="J14">
-        <v>818.501</v>
+        <v>1136.79477</v>
       </c>
       <c r="K14">
-        <v>916.563</v>
+        <v>1278.71661</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -46367,25 +46406,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P14">
-        <v>26.534</v>
+        <v>36.944</v>
       </c>
       <c r="Q14">
-        <v>79015.10000000001</v>
+        <v>39504.3</v>
       </c>
       <c r="R14">
-        <v>4673</v>
+        <v>1593</v>
       </c>
       <c r="S14">
-        <v>4673</v>
+        <v>1593</v>
       </c>
       <c r="T14">
-        <v>4551</v>
+        <v>1583</v>
       </c>
       <c r="U14">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -46399,70 +46438,70 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C15">
-        <v>8.529999999999999</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4.266592</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H15" t="s">
-        <v>427</v>
+        <v>114</v>
       </c>
       <c r="I15">
-        <v>4389.712</v>
+        <v>7482.570860000001</v>
       </c>
       <c r="J15">
-        <v>4743.601549999999</v>
+        <v>29434.78721</v>
       </c>
       <c r="K15">
-        <v>5127.34887</v>
+        <v>31337.83144</v>
       </c>
       <c r="L15">
-        <v>0.001943179871481318</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.001798211740612995</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.001663627776512114</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P15">
-        <v>22.361</v>
+        <v>43.037</v>
       </c>
       <c r="Q15">
-        <v>7414.4</v>
+        <v>931393.3</v>
       </c>
       <c r="R15">
-        <v>442</v>
+        <v>27419</v>
       </c>
       <c r="S15">
-        <v>442</v>
+        <v>27419</v>
       </c>
       <c r="T15">
-        <v>420</v>
+        <v>26304</v>
       </c>
       <c r="U15">
-        <v>22</v>
+        <v>1115</v>
       </c>
       <c r="V15">
-        <v>0.01929864253393665</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.001150463962019853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -46470,70 +46509,70 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16">
-        <v>39.54</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>39.53999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I16">
-        <v>1986.297</v>
+        <v>675.491</v>
       </c>
       <c r="J16">
-        <v>2796.5167</v>
+        <v>1413.818</v>
       </c>
       <c r="K16">
-        <v>3230.54226</v>
+        <v>2758.602</v>
       </c>
       <c r="L16">
-        <v>0.01990638862164117</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01413901801480392</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.0122394312835889</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P16">
-        <v>27.5</v>
+        <v>33.843</v>
       </c>
       <c r="Q16">
-        <v>20796.9</v>
+        <v>17914.1</v>
       </c>
       <c r="R16">
-        <v>969</v>
+        <v>1072</v>
       </c>
       <c r="S16">
-        <v>969</v>
+        <v>1072</v>
       </c>
       <c r="T16">
-        <v>940</v>
+        <v>1058</v>
       </c>
       <c r="U16">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="V16">
-        <v>0.04080495356037152</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.001901244897076006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -46541,70 +46580,70 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>33.68</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>16.838433</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>424</v>
       </c>
       <c r="I17">
-        <v>4310.1499</v>
+        <v>389.076</v>
       </c>
       <c r="J17">
-        <v>4929.73462</v>
+        <v>722.331</v>
       </c>
       <c r="K17">
-        <v>5388.06295</v>
+        <v>996.29989</v>
       </c>
       <c r="L17">
-        <v>0.00781411337921217</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006832010766534933</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.006250854957067641</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P17">
-        <v>37.083</v>
+        <v>35.724</v>
       </c>
       <c r="Q17">
-        <v>5235.5</v>
+        <v>27760.3</v>
       </c>
       <c r="R17">
-        <v>344</v>
+        <v>1078</v>
       </c>
       <c r="S17">
-        <v>344</v>
+        <v>1078</v>
       </c>
       <c r="T17">
-        <v>333</v>
+        <v>1026</v>
       </c>
       <c r="U17">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="V17">
-        <v>0.09790697674418604</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.00643300544360615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -46612,70 +46651,70 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C18">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.179883</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I18">
-        <v>4651.247820000001</v>
+        <v>332.575</v>
       </c>
       <c r="J18">
-        <v>7571.93548</v>
+        <v>818.501</v>
       </c>
       <c r="K18">
-        <v>8754.645759999999</v>
+        <v>916.563</v>
       </c>
       <c r="L18">
-        <v>0.0002321957551597412</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0001426319601973154</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.0001233630725453819</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P18">
-        <v>26.06</v>
+        <v>26.534</v>
       </c>
       <c r="Q18">
-        <v>164591.1</v>
+        <v>79015.10000000001</v>
       </c>
       <c r="R18">
-        <v>8175</v>
+        <v>4673</v>
       </c>
       <c r="S18">
-        <v>8175</v>
+        <v>4673</v>
       </c>
       <c r="T18">
-        <v>6808</v>
+        <v>4551</v>
       </c>
       <c r="U18">
-        <v>1367</v>
+        <v>122</v>
       </c>
       <c r="V18">
-        <v>0.0001321100917431193</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>6.561715669923829E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -46683,70 +46722,52 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>74.19</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>37.092657</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19">
-        <v>923.8107199999999</v>
-      </c>
-      <c r="J19">
-        <v>1203.68923</v>
-      </c>
-      <c r="K19">
-        <v>1305.72076</v>
-      </c>
-      <c r="L19">
-        <v>0.08030865889930353</v>
-      </c>
-      <c r="M19">
-        <v>0.06163551035511051</v>
-      </c>
-      <c r="N19">
-        <v>0.05681919310220663</v>
+        <v>426</v>
       </c>
       <c r="O19" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="P19">
-        <v>35.577</v>
+        <v>36.399</v>
       </c>
       <c r="Q19">
-        <v>4962.9</v>
+        <v>52770.2</v>
       </c>
       <c r="R19">
-        <v>244</v>
+        <v>2029</v>
       </c>
       <c r="S19">
-        <v>244</v>
+        <v>2029</v>
       </c>
       <c r="T19">
-        <v>232</v>
+        <v>2003</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="V19">
-        <v>0.3040573770491803</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.0149489209937738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -46754,7 +46775,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -46763,25 +46784,25 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>427</v>
       </c>
       <c r="I20">
-        <v>675.491</v>
+        <v>1522.0522</v>
       </c>
       <c r="J20">
-        <v>1413.818</v>
+        <v>3700.22874</v>
       </c>
       <c r="K20">
-        <v>2758.602</v>
+        <v>3917.96658</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -46793,25 +46814,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P20">
-        <v>33.843</v>
+        <v>36.69</v>
       </c>
       <c r="Q20">
-        <v>17914.1</v>
+        <v>93356.7</v>
       </c>
       <c r="R20">
-        <v>1072</v>
+        <v>3263</v>
       </c>
       <c r="S20">
-        <v>1072</v>
+        <v>3263</v>
       </c>
       <c r="T20">
-        <v>1058</v>
+        <v>3226</v>
       </c>
       <c r="U20">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -46825,7 +46846,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -46837,22 +46858,22 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>428</v>
       </c>
       <c r="I21">
-        <v>7482.570860000001</v>
+        <v>1376.66797</v>
       </c>
       <c r="J21">
-        <v>29434.78721</v>
+        <v>3427.89857</v>
       </c>
       <c r="K21">
-        <v>31337.83144</v>
+        <v>4007.65121</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -46864,25 +46885,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="P21">
-        <v>43.037</v>
+        <v>40.2</v>
       </c>
       <c r="Q21">
-        <v>931393.3</v>
+        <v>187627.3</v>
       </c>
       <c r="R21">
-        <v>27419</v>
+        <v>7326</v>
       </c>
       <c r="S21">
-        <v>27419</v>
+        <v>7326</v>
       </c>
       <c r="T21">
-        <v>26304</v>
+        <v>6935</v>
       </c>
       <c r="U21">
-        <v>1115</v>
+        <v>391</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -46896,7 +46917,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -46905,25 +46926,25 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="H22" t="s">
         <v>429</v>
       </c>
       <c r="I22">
-        <v>266.027</v>
+        <v>1934.868</v>
       </c>
       <c r="J22">
-        <v>1136.79477</v>
+        <v>4283.95204</v>
       </c>
       <c r="K22">
-        <v>1278.71661</v>
+        <v>4856.46266</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -46935,25 +46956,25 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="P22">
-        <v>36.944</v>
+        <v>27.407</v>
       </c>
       <c r="Q22">
-        <v>39504.3</v>
+        <v>42485.3</v>
       </c>
       <c r="R22">
-        <v>1593</v>
+        <v>2434</v>
       </c>
       <c r="S22">
-        <v>1593</v>
+        <v>2434</v>
       </c>
       <c r="T22">
-        <v>1583</v>
+        <v>2304</v>
       </c>
       <c r="U22">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -46967,7 +46988,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -46979,52 +47000,31 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="H23" t="s">
         <v>430</v>
       </c>
-      <c r="I23">
-        <v>1569.659</v>
-      </c>
-      <c r="J23">
-        <v>1983.361</v>
-      </c>
-      <c r="K23">
-        <v>2769.963</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="P23">
-        <v>39.847</v>
-      </c>
-      <c r="Q23">
-        <v>95388.8</v>
+        <v>42.115</v>
       </c>
       <c r="R23">
-        <v>3931</v>
+        <v>134</v>
       </c>
       <c r="S23">
-        <v>3931</v>
+        <v>134</v>
       </c>
       <c r="T23">
-        <v>3877</v>
+        <v>134</v>
       </c>
       <c r="U23">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -47115,7 +47115,7 @@
         <v>224.24</v>
       </c>
       <c r="D25">
-        <v>4.376506645962732</v>
+        <v>4.376506645962733</v>
       </c>
       <c r="E25">
         <v>220</v>
@@ -47183,37 +47183,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>186.86</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.063216393442623</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>433</v>
       </c>
       <c r="G2">
-        <v>9071.319</v>
+        <v>6636.366</v>
       </c>
       <c r="H2">
-        <v>11480.929</v>
+        <v>8877.003000000001</v>
       </c>
       <c r="I2">
-        <v>31079.911</v>
+        <v>26129.707</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02815697627285777</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.02104989713307521</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.007151247428836459</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -47221,37 +47221,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>83.95</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>41.976004</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>434</v>
       </c>
       <c r="G3">
-        <v>7107.197</v>
+        <v>6472.143</v>
       </c>
       <c r="H3">
-        <v>8049.631</v>
+        <v>6761.02</v>
       </c>
       <c r="I3">
-        <v>15738.524</v>
+        <v>8274.556</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01297097421982178</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.012416765517629</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01014555947171063</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -47259,13 +47259,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>71.88</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>71.88489</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -47274,22 +47274,22 @@
         <v>435</v>
       </c>
       <c r="G4">
-        <v>14441.622</v>
+        <v>3585.844</v>
       </c>
       <c r="H4">
-        <v>23547.705</v>
+        <v>3889.587</v>
       </c>
       <c r="I4">
-        <v>43378.156</v>
+        <v>5498.376</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02004548998785223</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0184801111274796</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0130729509949847</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -47297,37 +47297,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>63.36</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.759871666666666</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>436</v>
       </c>
       <c r="G5">
-        <v>8827.049999999999</v>
+        <v>11964.931</v>
       </c>
       <c r="H5">
-        <v>10234.317</v>
+        <v>14902.55</v>
       </c>
       <c r="I5">
-        <v>24524.897</v>
+        <v>35965.134</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.005295475586110776</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.004251621366813062</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.001761706212466774</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -47335,37 +47335,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>17.450256</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>437</v>
       </c>
       <c r="G6">
-        <v>1506.872</v>
+        <v>4367.661</v>
       </c>
       <c r="H6">
-        <v>1853.956</v>
+        <v>4548.191</v>
       </c>
       <c r="I6">
-        <v>7357.321</v>
+        <v>5485.606</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.007990546885392432</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.007673380471488554</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.006362104751963593</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -47373,37 +47373,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C7">
-        <v>1.01</v>
+        <v>9.02</v>
       </c>
       <c r="D7">
-        <v>0.335965</v>
+        <v>4.51112</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>438</v>
       </c>
       <c r="G7">
-        <v>10524.142</v>
+        <v>3058.712</v>
       </c>
       <c r="H7">
-        <v>11958.042</v>
+        <v>3222.095</v>
       </c>
       <c r="I7">
-        <v>21426.24</v>
+        <v>4027.821</v>
       </c>
       <c r="J7">
-        <v>9.596981872726538E-05</v>
+        <v>0.002948953677234078</v>
       </c>
       <c r="K7">
-        <v>8.446198800773571E-05</v>
+        <v>0.00279942087368622</v>
       </c>
       <c r="L7">
-        <v>4.713846199799871E-05</v>
+        <v>0.00223942424452328</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -47411,37 +47411,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>5.73</v>
       </c>
       <c r="D8">
-        <v>0.201058</v>
+        <v>2.8635</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>439</v>
       </c>
       <c r="G8">
-        <v>3637.557</v>
+        <v>5202.787</v>
       </c>
       <c r="H8">
-        <v>4267.882</v>
+        <v>5497.921</v>
       </c>
       <c r="I8">
-        <v>10858.299</v>
+        <v>6485.618</v>
       </c>
       <c r="J8">
-        <v>0.0002199278251859696</v>
+        <v>0.001101332804898605</v>
       </c>
       <c r="K8">
-        <v>0.0001874466070055358</v>
+        <v>0.001042212138006348</v>
       </c>
       <c r="L8">
-        <v>7.367636496287309E-05</v>
+        <v>0.0008834932923894068</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -47449,37 +47449,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.4638231428571429</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>440</v>
       </c>
       <c r="G9">
-        <v>1019.846</v>
+        <v>16431.562</v>
       </c>
       <c r="H9">
-        <v>1040.727</v>
+        <v>16832.839</v>
       </c>
       <c r="I9">
-        <v>1058.47</v>
+        <v>20633.473</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0001977900822818914</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0001930749768354584</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0001575110501271405</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -47487,37 +47487,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.708574</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>441</v>
       </c>
       <c r="G10">
-        <v>5840.61</v>
+        <v>4813.364</v>
       </c>
       <c r="H10">
-        <v>6309.57</v>
+        <v>6293.141</v>
       </c>
       <c r="I10">
-        <v>10133.559</v>
+        <v>13976.401</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0002950119708378589</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0002256424891798865</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0001015998324604453</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -47525,37 +47525,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>5.73</v>
+        <v>1.01</v>
       </c>
       <c r="D11">
-        <v>2.8635</v>
+        <v>0.335965</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>442</v>
       </c>
       <c r="G11">
-        <v>5202.787</v>
+        <v>10524.142</v>
       </c>
       <c r="H11">
-        <v>5497.921</v>
+        <v>11958.042</v>
       </c>
       <c r="I11">
-        <v>6485.618</v>
+        <v>21426.24</v>
       </c>
       <c r="J11">
-        <v>0.001101332804898605</v>
+        <v>9.596981872726538E-05</v>
       </c>
       <c r="K11">
-        <v>0.001042212138006348</v>
+        <v>8.446198800773571E-05</v>
       </c>
       <c r="L11">
-        <v>0.0008834932923894068</v>
+        <v>4.713846199799871E-05</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -47563,37 +47563,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C12">
-        <v>3.25</v>
+        <v>0.8</v>
       </c>
       <c r="D12">
-        <v>0.4638231428571429</v>
+        <v>0.201058</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>443</v>
       </c>
       <c r="G12">
-        <v>16431.562</v>
+        <v>3637.557</v>
       </c>
       <c r="H12">
-        <v>16832.839</v>
+        <v>4267.882</v>
       </c>
       <c r="I12">
-        <v>20633.473</v>
+        <v>10858.299</v>
       </c>
       <c r="J12">
-        <v>0.0001977900822818914</v>
+        <v>0.0002199278251859696</v>
       </c>
       <c r="K12">
-        <v>0.0001930749768354584</v>
+        <v>0.0001874466070055358</v>
       </c>
       <c r="L12">
-        <v>0.0001575110501271405</v>
+        <v>7.367636496287309E-05</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -47601,37 +47601,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3512625</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="G13">
-        <v>7482.072</v>
+        <v>21575.577</v>
       </c>
       <c r="H13">
-        <v>10238.772</v>
+        <v>23612.979</v>
       </c>
       <c r="I13">
-        <v>25259.19</v>
+        <v>35434.915</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.244409176171742E-05</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.964471361279743E-05</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.975452742020123E-05</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -47639,37 +47639,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C14">
-        <v>9.02</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4.51112</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G14">
-        <v>3058.712</v>
+        <v>33657.213</v>
       </c>
       <c r="H14">
-        <v>3222.095</v>
+        <v>42387.444</v>
       </c>
       <c r="I14">
-        <v>4027.821</v>
+        <v>70875.09600000001</v>
       </c>
       <c r="J14">
-        <v>0.002948953677234078</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.00279942087368622</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.00223942424452328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -47677,37 +47677,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C15">
-        <v>71.88</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>71.88489</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G15">
-        <v>3585.844</v>
+        <v>6474.693</v>
       </c>
       <c r="H15">
-        <v>3889.587</v>
+        <v>7844.469</v>
       </c>
       <c r="I15">
-        <v>5498.376</v>
+        <v>15249.678</v>
       </c>
       <c r="J15">
-        <v>0.02004548998785223</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.0184801111274796</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0130729509949847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -47715,37 +47715,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C16">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>17.450256</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G16">
-        <v>4367.661</v>
+        <v>9071.319</v>
       </c>
       <c r="H16">
-        <v>4548.191</v>
+        <v>11480.929</v>
       </c>
       <c r="I16">
-        <v>5485.606</v>
+        <v>31079.911</v>
       </c>
       <c r="J16">
-        <v>0.007990546885392432</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.007673380471488554</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.006362104751963593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -47753,37 +47753,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C17">
-        <v>186.86</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>3.063216393442623</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G17">
-        <v>6636.366</v>
+        <v>7107.197</v>
       </c>
       <c r="H17">
-        <v>8877.003000000001</v>
+        <v>8049.631</v>
       </c>
       <c r="I17">
-        <v>26129.707</v>
+        <v>15738.524</v>
       </c>
       <c r="J17">
-        <v>0.02815697627285777</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.02104989713307521</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.007151247428836459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -47791,7 +47791,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -47800,19 +47800,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G18">
-        <v>6474.693</v>
+        <v>5840.61</v>
       </c>
       <c r="H18">
-        <v>7844.469</v>
+        <v>6309.57</v>
       </c>
       <c r="I18">
-        <v>15249.678</v>
+        <v>10133.559</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -47829,7 +47829,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -47841,16 +47841,16 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G19">
-        <v>33657.213</v>
+        <v>1019.846</v>
       </c>
       <c r="H19">
-        <v>42387.444</v>
+        <v>1040.727</v>
       </c>
       <c r="I19">
-        <v>70875.09600000001</v>
+        <v>1058.47</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -47867,37 +47867,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.708574</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G20">
-        <v>4813.364</v>
+        <v>1506.872</v>
       </c>
       <c r="H20">
-        <v>6293.141</v>
+        <v>1853.956</v>
       </c>
       <c r="I20">
-        <v>13976.401</v>
+        <v>7357.321</v>
       </c>
       <c r="J20">
-        <v>0.0002950119708378589</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.0002256424891798865</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0001015998324604453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -47905,37 +47905,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C21">
-        <v>63.36</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1.759871666666666</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G21">
-        <v>11964.931</v>
+        <v>8827.049999999999</v>
       </c>
       <c r="H21">
-        <v>14902.55</v>
+        <v>10234.317</v>
       </c>
       <c r="I21">
-        <v>35965.134</v>
+        <v>24524.897</v>
       </c>
       <c r="J21">
-        <v>0.005295475586110776</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.004251621366813062</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.001761706212466774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -47943,37 +47943,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C22">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3512625</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G22">
-        <v>21575.577</v>
+        <v>14441.622</v>
       </c>
       <c r="H22">
-        <v>23612.979</v>
+        <v>23547.705</v>
       </c>
       <c r="I22">
-        <v>35434.915</v>
+        <v>43378.156</v>
       </c>
       <c r="J22">
-        <v>3.244409176171742E-05</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2.964471361279743E-05</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.975452742020123E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -47981,37 +47981,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C23">
-        <v>83.95</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>41.976004</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="G23">
-        <v>6472.143</v>
+        <v>7482.072</v>
       </c>
       <c r="H23">
-        <v>6761.02</v>
+        <v>10238.772</v>
       </c>
       <c r="I23">
-        <v>8274.556</v>
+        <v>25259.19</v>
       </c>
       <c r="J23">
-        <v>0.01297097421982178</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.012416765517629</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01014555947171063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -48089,7 +48089,7 @@
         <v>224.24</v>
       </c>
       <c r="D3">
-        <v>4.376506645962732</v>
+        <v>4.376506645962733</v>
       </c>
       <c r="E3">
         <v>220</v>
